--- a/src/test/resources/testdata/preTripFlow.xlsx
+++ b/src/test/resources/testdata/preTripFlow.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AutomationScripts\Auto\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BF1CD5-E922-4E37-B376-D25D652B174B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6FB8B7-6CDB-41EF-94AB-487C0CAA8753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{6C5D17BB-FEBB-425C-848B-5F08BA2BF1F0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{6C5D17BB-FEBB-425C-848B-5F08BA2BF1F0}"/>
   </bookViews>
   <sheets>
     <sheet name="TCTP_01" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="49">
   <si>
     <t>Origin</t>
   </si>
@@ -144,12 +145,72 @@
   <si>
     <t>1stops</t>
   </si>
+  <si>
+    <t>BusExample</t>
+  </si>
+  <si>
+    <t>BoardingPointIndex</t>
+  </si>
+  <si>
+    <t>DropingPointIndex</t>
+  </si>
+  <si>
+    <t>SeatCount</t>
+  </si>
+  <si>
+    <t>ViewBus</t>
+  </si>
+  <si>
+    <t>Policy</t>
+  </si>
+  <si>
+    <t>SeatType</t>
+  </si>
+  <si>
+    <t>DepartTime</t>
+  </si>
+  <si>
+    <t>In Policy</t>
+  </si>
+  <si>
+    <t>Seater,Sleeper</t>
+  </si>
+  <si>
+    <t>After 6 PM</t>
+  </si>
+  <si>
+    <t>Seater</t>
+  </si>
+  <si>
+    <t>Semi Sleeper</t>
+  </si>
+  <si>
+    <t>Sleeper</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +256,11 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF191919"/>
+      <name val="Montserrat"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -216,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -227,6 +293,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{343289D8-F657-42A7-B33A-7D8338231204}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -694,4 +763,1427 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7004DEEA-7626-44DD-B019-E08D716B61F3}">
+  <dimension ref="A1:L37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="20.6328125" customWidth="1"/>
+    <col min="4" max="4" width="16.90625" customWidth="1"/>
+    <col min="5" max="5" width="14.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>37</v>
+      </c>
+      <c r="J25" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25" t="s">
+        <v>39</v>
+      </c>
+      <c r="L25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>37</v>
+      </c>
+      <c r="J26" t="s">
+        <v>38</v>
+      </c>
+      <c r="K26" t="s">
+        <v>39</v>
+      </c>
+      <c r="L26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>37</v>
+      </c>
+      <c r="J27" t="s">
+        <v>40</v>
+      </c>
+      <c r="K27" t="s">
+        <v>39</v>
+      </c>
+      <c r="L27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>37</v>
+      </c>
+      <c r="J28" t="s">
+        <v>42</v>
+      </c>
+      <c r="K28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>37</v>
+      </c>
+      <c r="J29" t="s">
+        <v>38</v>
+      </c>
+      <c r="K29" t="s">
+        <v>39</v>
+      </c>
+      <c r="L29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>37</v>
+      </c>
+      <c r="J30" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30" t="s">
+        <v>39</v>
+      </c>
+      <c r="L30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>37</v>
+      </c>
+      <c r="J31" t="s">
+        <v>42</v>
+      </c>
+      <c r="K31" t="s">
+        <v>39</v>
+      </c>
+      <c r="L31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>37</v>
+      </c>
+      <c r="J32" t="s">
+        <v>38</v>
+      </c>
+      <c r="K32" t="s">
+        <v>39</v>
+      </c>
+      <c r="L32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>37</v>
+      </c>
+      <c r="J33" t="s">
+        <v>40</v>
+      </c>
+      <c r="K33" t="s">
+        <v>39</v>
+      </c>
+      <c r="L33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>6</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>37</v>
+      </c>
+      <c r="J34" t="s">
+        <v>42</v>
+      </c>
+      <c r="K34" t="s">
+        <v>39</v>
+      </c>
+      <c r="L34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>37</v>
+      </c>
+      <c r="J35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K35" t="s">
+        <v>39</v>
+      </c>
+      <c r="L35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>37</v>
+      </c>
+      <c r="J36" t="s">
+        <v>40</v>
+      </c>
+      <c r="K36" t="s">
+        <v>39</v>
+      </c>
+      <c r="L36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>37</v>
+      </c>
+      <c r="J37" t="s">
+        <v>42</v>
+      </c>
+      <c r="K37" t="s">
+        <v>39</v>
+      </c>
+      <c r="L37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>